--- a/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D2F6168-5070-4B07-8384-DE0BA0363707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2206048-B293-47C3-989F-0A0B85840995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{267FA6BD-64A5-4FAD-890D-6E37192D64C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5FF1150-98E5-4D88-A095-369470B38027}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="218">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por una mujer en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -89,10 +89,10 @@
     <t>46,88%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -104,16 +104,16 @@
     <t>37,24%</t>
   </si>
   <si>
-    <t>86,08%</t>
+    <t>83,52%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -128,13 +128,13 @@
     <t>23,96%</t>
   </si>
   <si>
-    <t>73,63%</t>
+    <t>81,76%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>52,21%</t>
+    <t>55,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,73 +146,73 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>38,7%</t>
+    <t>42,31%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>51,06%</t>
+    <t>47,84%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>50,38%</t>
+    <t>49,0%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -221,67 +221,67 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>21,4%</t>
+    <t>22,91%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>40,73%</t>
+    <t>33,46%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>47,91%</t>
+    <t>48,8%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>57,98%</t>
+    <t>62,8%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>47,65%</t>
+    <t>47,59%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -290,25 +290,25 @@
     <t>23,79%</t>
   </si>
   <si>
-    <t>59,6%</t>
+    <t>64,97%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>37,74%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -317,37 +317,37 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>5,08%</t>
+    <t>5,56%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>40,4%</t>
+    <t>35,03%</t>
   </si>
   <si>
     <t>49,53%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -362,7 +362,7 @@
     <t>25,53%</t>
   </si>
   <si>
-    <t>69,66%</t>
+    <t>73,62%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -374,7 +374,7 @@
     <t>10,42%</t>
   </si>
   <si>
-    <t>57,62%</t>
+    <t>56,59%</t>
   </si>
   <si>
     <t>79,79%</t>
@@ -386,10 +386,10 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -398,67 +398,67 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>50,61%</t>
+    <t>44,68%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>78,39%</t>
+    <t>67,54%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>41,2%</t>
+    <t>47,13%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>64,83%</t>
+    <t>61,8%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>67,95%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>91,77%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>64,75%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -467,73 +467,73 @@
     <t>36,31%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>52,42%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>46,17%</t>
+    <t>40,01%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>18,4%</t>
+    <t>20,74%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>19,3%</t>
+    <t>20,09%</t>
   </si>
   <si>
     <t>54,41%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>41,47%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -557,10 +557,10 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
   </si>
   <si>
     <t>21,85%</t>
@@ -578,10 +578,10 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
   </si>
   <si>
     <t>76,27%</t>
@@ -602,85 +602,91 @@
     <t>58,04%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,56%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>22,94%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A7528D-A3CD-4C71-9C52-38595651177C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A10491A-808A-4B4E-90A1-7EB37CB67CAC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2285,7 +2291,7 @@
         <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2306,13 @@
         <v>974</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2315,13 +2321,13 @@
         <v>714</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2330,13 +2336,13 @@
         <v>1688</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2357,13 @@
         <v>4372</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2366,10 +2372,10 @@
         <v>2073</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>137</v>
@@ -2903,7 +2909,7 @@
         <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2924,13 @@
         <v>8277</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -2933,13 +2939,13 @@
         <v>5705</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -2948,13 +2954,13 @@
         <v>13983</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2975,13 @@
         <v>46508</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>33</v>
@@ -2984,13 +2990,13 @@
         <v>20695</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>89</v>
@@ -2999,13 +3005,13 @@
         <v>67204</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3067,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2206048-B293-47C3-989F-0A0B85840995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB5AC4-7BF6-4581-AD1A-8F2FBFDD8718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5FF1150-98E5-4D88-A095-369470B38027}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{772AB527-1CA4-4041-BE0D-40CFE12F16F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A10491A-808A-4B4E-90A1-7EB37CB67CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A92FD71-76F4-4236-A2B8-5EF269F0039F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FB5AC4-7BF6-4581-AD1A-8F2FBFDD8718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E9355BC-0CF3-454A-A769-1C0EDAB67971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{772AB527-1CA4-4041-BE0D-40CFE12F16F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2CD507D-B3CA-4F76-AFF4-6A0474AEF07D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="216">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por una mujer en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -89,10 +89,10 @@
     <t>46,88%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -104,16 +104,16 @@
     <t>37,24%</t>
   </si>
   <si>
-    <t>83,52%</t>
+    <t>86,08%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -128,13 +128,13 @@
     <t>23,96%</t>
   </si>
   <si>
-    <t>81,76%</t>
+    <t>73,63%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>55,31%</t>
+    <t>52,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,73 +146,73 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>42,31%</t>
+    <t>38,7%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>47,84%</t>
+    <t>51,06%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>49,0%</t>
+    <t>50,38%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -221,67 +221,67 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,91%</t>
+    <t>21,4%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>33,46%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>48,8%</t>
+    <t>47,91%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>62,8%</t>
+    <t>57,98%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>47,59%</t>
+    <t>47,65%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -290,25 +290,25 @@
     <t>23,79%</t>
   </si>
   <si>
-    <t>64,97%</t>
+    <t>59,6%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>37,74%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -317,37 +317,37 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>9,71%</t>
+    <t>8,33%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>5,56%</t>
+    <t>5,08%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>35,03%</t>
+    <t>40,4%</t>
   </si>
   <si>
     <t>49,53%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -362,7 +362,7 @@
     <t>25,53%</t>
   </si>
   <si>
-    <t>73,62%</t>
+    <t>69,66%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -374,7 +374,7 @@
     <t>10,42%</t>
   </si>
   <si>
-    <t>56,59%</t>
+    <t>57,62%</t>
   </si>
   <si>
     <t>79,79%</t>
@@ -386,10 +386,10 @@
     <t>64,05%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -398,67 +398,67 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>44,68%</t>
+    <t>50,61%</t>
   </si>
   <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>67,54%</t>
+    <t>78,39%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>47,13%</t>
+    <t>41,2%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>61,8%</t>
+    <t>64,83%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
   </si>
   <si>
     <t>67,95%</t>
   </si>
   <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
     <t>39,72%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>84,74%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -467,73 +467,73 @@
     <t>36,31%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>52,42%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>40,01%</t>
+    <t>46,17%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>20,74%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>20,09%</t>
+    <t>19,3%</t>
   </si>
   <si>
     <t>54,41%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
   </si>
   <si>
     <t>41,47%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -557,10 +557,10 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
   </si>
   <si>
     <t>21,85%</t>
@@ -578,10 +578,10 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>76,27%</t>
@@ -602,91 +602,85 @@
     <t>58,04%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>24,56%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>22,94%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A92FD71-76F4-4236-A2B8-5EF269F0039F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69528A54-AB12-4C0D-9F3D-493677840B19}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2291,7 +2285,7 @@
         <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2300,13 @@
         <v>974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2321,13 +2315,13 @@
         <v>714</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2336,13 +2330,13 @@
         <v>1688</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2351,13 @@
         <v>4372</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2372,10 +2366,10 @@
         <v>2073</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>137</v>
@@ -2909,7 +2903,7 @@
         <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2918,13 @@
         <v>8277</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -2939,13 +2933,13 @@
         <v>5705</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -2954,13 +2948,13 @@
         <v>13983</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2969,13 @@
         <v>46508</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>33</v>
@@ -2990,13 +2984,13 @@
         <v>20695</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>89</v>
@@ -3005,13 +2999,13 @@
         <v>67204</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3061,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E9355BC-0CF3-454A-A769-1C0EDAB67971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3021D9-22CC-4A9D-923D-5E4E2872CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2CD507D-B3CA-4F76-AFF4-6A0474AEF07D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DED829B1-218B-4D80-8779-A2EAC4924604}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="218">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por una mujer en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>56,88%</t>
+    <t>56,09%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -80,607 +80,613 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
   </si>
   <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>Sí, todo o casi todo el tiempo</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>Sí, todo o casi todo el tiempo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1095,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69528A54-AB12-4C0D-9F3D-493677840B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91F01DF-7A1B-4A20-97B9-112BA493FC87}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1216,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1196</v>
+        <v>1387</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1231,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1246,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>2204</v>
+        <v>2422</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1267,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>907</v>
+        <v>1085</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1282,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1297,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1875</v>
+        <v>2101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1333,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>29</v>
@@ -1348,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>31</v>
@@ -1369,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2103</v>
+        <v>2472</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>33</v>
@@ -1384,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2598</v>
+        <v>2683</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1399,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>4702</v>
+        <v>5154</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1422,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1404</v>
+        <v>1355</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1437,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1693</v>
+        <v>1652</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1452,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3096</v>
+        <v>3008</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1473,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>2763</v>
+        <v>2743</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>43</v>
@@ -1488,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>788</v>
+        <v>730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -1503,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>3552</v>
+        <v>3474</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>47</v>
@@ -1524,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11577</v>
+        <v>11104</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1539,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3958</v>
+        <v>3707</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1554,7 +1560,7 @@
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>15534</v>
+        <v>14811</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1575,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>15744</v>
+        <v>15203</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>33</v>
@@ -1590,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>6439</v>
+        <v>6090</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>33</v>
@@ -1605,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>22182</v>
+        <v>21293</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>33</v>
@@ -1628,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>60</v>
@@ -1643,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>5032</v>
+        <v>4672</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>62</v>
@@ -1658,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5524</v>
+        <v>5151</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>65</v>
@@ -1679,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1694,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1136</v>
+        <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>70</v>
@@ -1709,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2044</v>
+        <v>1936</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>72</v>
@@ -1730,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>10059</v>
+        <v>9700</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
@@ -1745,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1144</v>
+        <v>1089</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1760,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>11203</v>
+        <v>10789</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
@@ -1781,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>11459</v>
+        <v>11062</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>33</v>
@@ -1796,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>7312</v>
+        <v>6813</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -1811,7 +1817,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>18771</v>
+        <v>17876</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>33</v>
@@ -1834,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2152</v>
+        <v>2069</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>83</v>
@@ -1849,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>5474</v>
+        <v>5189</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -1864,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>7626</v>
+        <v>7258</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -1900,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>92</v>
@@ -1915,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>94</v>
@@ -1936,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>6895</v>
+        <v>6594</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>96</v>
@@ -1951,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>5528</v>
+        <v>4991</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>98</v>
@@ -1966,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>12423</v>
+        <v>11586</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>101</v>
@@ -1987,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>9047</v>
+        <v>8663</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>33</v>
@@ -2002,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>11161</v>
+        <v>10340</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>33</v>
@@ -2017,7 +2023,7 @@
         <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>20208</v>
+        <v>19004</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>105</v>
@@ -2055,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>106</v>
@@ -2070,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>961</v>
+        <v>876</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>107</v>
@@ -2106,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>110</v>
@@ -2121,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>111</v>
@@ -2142,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2013</v>
+        <v>1819</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>113</v>
@@ -2157,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>114</v>
@@ -2172,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2410</v>
+        <v>2179</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>115</v>
@@ -2193,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>2523</v>
+        <v>2283</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>33</v>
@@ -2208,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>1240</v>
+        <v>1130</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>33</v>
@@ -2223,7 +2229,7 @@
         <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>3763</v>
+        <v>3413</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>33</v>
@@ -2246,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>1089</v>
+        <v>1040</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>119</v>
@@ -2261,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>732</v>
+        <v>681</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>121</v>
@@ -2276,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>1821</v>
+        <v>1721</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>123</v>
@@ -2297,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>126</v>
@@ -2312,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>128</v>
@@ -2327,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>1688</v>
+        <v>1619</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>130</v>
@@ -2348,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>4372</v>
+        <v>4227</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>133</v>
@@ -2363,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>2073</v>
+        <v>1938</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>136</v>
@@ -2378,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>6445</v>
+        <v>6165</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>138</v>
@@ -2399,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>6435</v>
+        <v>6220</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>33</v>
@@ -2414,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="7">
-        <v>3519</v>
+        <v>3284</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>33</v>
@@ -2429,7 +2435,7 @@
         <v>18</v>
       </c>
       <c r="N27" s="7">
-        <v>9954</v>
+        <v>9504</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>
@@ -2452,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>3436</v>
+        <v>3232</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>142</v>
@@ -2467,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="7">
-        <v>10106</v>
+        <v>9307</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>145</v>
@@ -2482,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="N28" s="7">
-        <v>13542</v>
+        <v>12539</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>148</v>
@@ -2503,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>151</v>
@@ -2518,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>153</v>
@@ -2533,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>1577</v>
+        <v>1486</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>155</v>
@@ -2554,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>5149</v>
+        <v>4907</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>157</v>
@@ -2569,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>5565</v>
+        <v>5223</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>160</v>
@@ -2584,7 +2590,7 @@
         <v>18</v>
       </c>
       <c r="N30" s="7">
-        <v>10714</v>
+        <v>10130</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>163</v>
@@ -2605,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>9464</v>
+        <v>8973</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>33</v>
@@ -2620,7 +2626,7 @@
         <v>28</v>
       </c>
       <c r="I31" s="7">
-        <v>16370</v>
+        <v>15181</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>33</v>
@@ -2635,7 +2641,7 @@
         <v>38</v>
       </c>
       <c r="N31" s="7">
-        <v>25834</v>
+        <v>24155</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>33</v>
@@ -2673,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>2820</v>
+        <v>2404</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>169</v>
@@ -2688,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>2979</v>
+        <v>2563</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>172</v>
@@ -2709,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>1846</v>
+        <v>1630</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>175</v>
@@ -2724,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>850</v>
+        <v>724</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>177</v>
@@ -2739,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="7">
-        <v>2696</v>
+        <v>2355</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>179</v>
@@ -2760,7 +2766,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="7">
-        <v>6443</v>
+        <v>5610</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>182</v>
@@ -2775,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>1408</v>
+        <v>1194</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>185</v>
@@ -2790,7 +2796,7 @@
         <v>10</v>
       </c>
       <c r="N34" s="7">
-        <v>7851</v>
+        <v>6804</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>187</v>
@@ -2811,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>8448</v>
+        <v>7400</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>33</v>
@@ -2826,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>5078</v>
+        <v>4322</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>33</v>
@@ -2841,7 +2847,7 @@
         <v>18</v>
       </c>
       <c r="N35" s="7">
-        <v>13526</v>
+        <v>11722</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>33</v>
@@ -2864,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>10438</v>
+        <v>10184</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>190</v>
@@ -2879,7 +2885,7 @@
         <v>41</v>
       </c>
       <c r="I36" s="7">
-        <v>27316</v>
+        <v>25354</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>193</v>
@@ -2894,7 +2900,7 @@
         <v>53</v>
       </c>
       <c r="N36" s="7">
-        <v>37754</v>
+        <v>35538</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>196</v>
@@ -2903,7 +2909,7 @@
         <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,46 +2921,46 @@
         <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>8277</v>
+        <v>8130</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
       </c>
       <c r="I37" s="7">
-        <v>5705</v>
+        <v>5358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>13983</v>
+        <v>13488</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,46 +2972,46 @@
         <v>56</v>
       </c>
       <c r="D38" s="7">
-        <v>46508</v>
+        <v>43963</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>33</v>
       </c>
       <c r="I38" s="7">
-        <v>20695</v>
+        <v>19132</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>89</v>
       </c>
       <c r="N38" s="7">
-        <v>67204</v>
+        <v>63094</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3023,7 @@
         <v>77</v>
       </c>
       <c r="D39" s="7">
-        <v>65223</v>
+        <v>62277</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>33</v>
@@ -3032,7 +3038,7 @@
         <v>85</v>
       </c>
       <c r="I39" s="7">
-        <v>53717</v>
+        <v>49843</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>33</v>
@@ -3047,7 +3053,7 @@
         <v>162</v>
       </c>
       <c r="N39" s="7">
-        <v>118940</v>
+        <v>112120</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>33</v>
@@ -3061,7 +3067,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
